--- a/Professor/Plano de Aulas.xlsx
+++ b/Professor/Plano de Aulas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="plano de aula" sheetId="1" r:id="rId1"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +908,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
@@ -937,7 +937,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
@@ -966,7 +966,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
@@ -995,7 +995,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="s">
@@ -1021,7 +1021,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C9" t="s">
@@ -1047,7 +1047,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C10" t="s">
@@ -1079,7 +1079,7 @@
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E11" t="s">
@@ -1102,7 +1102,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C12" t="s">
@@ -1128,7 +1128,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C13" t="s">
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C14" t="s">
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C15" t="s">
@@ -1222,7 +1222,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C18" t="s">
@@ -1230,17 +1230,17 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1250,37 +1250,37 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Professor/Plano de Aulas.xlsx
+++ b/Professor/Plano de Aulas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +882,7 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
@@ -911,7 +911,7 @@
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
@@ -940,7 +940,7 @@
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
@@ -969,7 +969,7 @@
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E7" t="s">
@@ -998,7 +998,7 @@
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
@@ -1024,7 +1024,7 @@
       <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E9" t="s">
@@ -1050,7 +1050,7 @@
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E10" t="s">

--- a/Professor/Plano de Aulas.xlsx
+++ b/Professor/Plano de Aulas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="plano de aula" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Resumo</t>
   </si>
@@ -412,63 +411,6 @@
   </si>
   <si>
     <t>Formulas com referencia Absoluta e relativa</t>
-  </si>
-  <si>
-    <t>Uniao</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Prefeitura</t>
-  </si>
-  <si>
-    <t>Gerentes</t>
-  </si>
-  <si>
-    <t>Diretores</t>
-  </si>
-  <si>
-    <t>Fornecedores MP</t>
-  </si>
-  <si>
-    <t>Funcionarios CLT</t>
-  </si>
-  <si>
-    <t>Fornecedores Serviço</t>
-  </si>
-  <si>
-    <t>Sindicatos</t>
-  </si>
-  <si>
-    <t>Associações</t>
-  </si>
-  <si>
-    <t>Criar lista pérsonlizada</t>
-  </si>
-  <si>
-    <t>União</t>
-  </si>
-  <si>
-    <t>o caso aqui será baseado em Ordem de pagamanento do Contas a Pagar, Criar base de dados de  Notas fiscais a pagar para dizer quem eu irei pagar primeiro. Colocar isso por semana e como serão muias vezes, todos os meses. Fazer cruzamento com valores.</t>
-  </si>
-  <si>
-    <t>Empresa em dificuldade financeira, tem uma bsase de NFs a pagar que não aceita parcial, e precisa priorizar os pagamento. Com base Nisso, tera a ordem de importancia pois a mepresa  é devedora do BNDS e precisa renovar. O aluno devera classificar primeiro por importancia do Grupo er depois por valor apagar posi ocorre multa sempre de 2%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerentes </t>
-  </si>
-  <si>
-    <t>Comentarios:</t>
-  </si>
-  <si>
-    <t>Criar comentarios com figuras,m penbsei algo em produtos</t>
-  </si>
-  <si>
-    <t>Comando de Inserir  Comentarios</t>
-  </si>
-  <si>
-    <t>Pensei em fazer um book de caminhões, pensar no calculo que precisamos</t>
   </si>
 </sst>
 </file>
@@ -527,11 +469,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +757,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +823,7 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
@@ -908,10 +849,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
@@ -937,10 +878,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
@@ -966,10 +907,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E7" t="s">
@@ -995,10 +936,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
@@ -1021,10 +962,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E9" t="s">
@@ -1047,10 +988,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E10" t="s">
@@ -1079,7 +1020,7 @@
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E11" t="s">
@@ -1102,7 +1043,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C12" t="s">
@@ -1128,7 +1069,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C13" t="s">
@@ -1151,7 +1092,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C14" t="s">
@@ -1171,7 +1112,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C15" t="s">
@@ -1222,7 +1163,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C18" t="s">
@@ -1230,17 +1171,17 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1250,37 +1191,37 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1288,143 +1229,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:B5">
-    <sortCondition ref="B2:B5" customList="banana,maça,pera,goiaba,coco,morango"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Professor/Plano de Aulas.xlsx
+++ b/Professor/Plano de Aulas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="plano de aula" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +476,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,7 +766,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +835,7 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
@@ -855,10 +864,10 @@
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="s">
@@ -870,7 +879,7 @@
       <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P5" t="s">
@@ -884,7 +893,7 @@
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G6" t="s">
@@ -913,7 +922,7 @@
       <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G7" t="s">
@@ -942,7 +951,7 @@
       <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G8" t="s">
@@ -968,7 +977,7 @@
       <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G9" t="s">
@@ -994,7 +1003,7 @@
       <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G10" t="s">
@@ -1023,7 +1032,7 @@
       <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I11" t="s">
@@ -1046,10 +1055,10 @@
       <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
@@ -1072,10 +1081,10 @@
       <c r="A13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I13" t="s">
@@ -1095,7 +1104,7 @@
       <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I14" t="s">
@@ -1132,13 +1141,13 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>108</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K16" t="s">
@@ -1149,7 +1158,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C17" t="s">
@@ -1186,7 +1195,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Professor/Plano de Aulas.xlsx
+++ b/Professor/Plano de Aulas.xlsx
@@ -15,7 +15,6 @@
     <sheet name="plano de aula" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -765,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +837,7 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
@@ -873,7 +872,7 @@
       <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M5" t="s">
@@ -896,7 +895,7 @@
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I6" t="s">
@@ -925,13 +924,13 @@
       <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M7" t="s">
@@ -957,7 +956,7 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="K8" t="s">
@@ -1127,7 +1126,7 @@
       <c r="C15" t="s">
         <v>102</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>103</v>
       </c>
       <c r="K15" t="s">
@@ -1161,7 +1160,7 @@
       <c r="A17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>113</v>
       </c>
       <c r="I17" t="s">

--- a/Professor/Plano de Aulas.xlsx
+++ b/Professor/Plano de Aulas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="plano de aula" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -762,10 +763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +845,7 @@
       <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M4" t="s">
@@ -898,7 +900,7 @@
       <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K6" t="s">
@@ -956,7 +958,7 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K8" t="s">
@@ -985,7 +987,7 @@
       <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="M9" t="s">
@@ -1237,4 +1239,16 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Professor/Plano de Aulas.xlsx
+++ b/Professor/Plano de Aulas.xlsx
@@ -9,12 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="plano de aula" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Bananas">#REF!</definedName>
+    <definedName name="grp_GuieMeChave">"shp_BraceBottom,txt_WalkMeBrace,shp_BraceLeft"</definedName>
+    <definedName name="grp_GuieMeSetas">"shp_ArrowCurved,txt_WalkMeArrows,shp_ArrowStraight"</definedName>
+    <definedName name="Imposto_sobre_vendas">0.0825</definedName>
+    <definedName name="Laranjas">#REF!</definedName>
+    <definedName name="Limões">#REF!</definedName>
+    <definedName name="lst_Fruta">#REF!</definedName>
+    <definedName name="lst_TipoDeFruta">#REF!</definedName>
+    <definedName name="Maçãs">#REF!</definedName>
+    <definedName name="Remessa">1.25</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -418,7 +429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,8 +445,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B744D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,8 +506,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -472,9 +548,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF4B183"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFF4B183"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF4B183"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF4B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -484,8 +608,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Borda laranja 2" xfId="9"/>
+    <cellStyle name="Cabeçalho 1 2" xfId="2"/>
+    <cellStyle name="Cabeçalho 2 2" xfId="3"/>
+    <cellStyle name="Cabeçalho 3 2" xfId="8"/>
+    <cellStyle name="Célula amarela 2 2" xfId="6"/>
+    <cellStyle name="Célula cinza 2 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="12"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 3 2" xfId="10"/>
+    <cellStyle name="Texto de coluna de Z a A" xfId="11"/>
+    <cellStyle name="Título 2 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -767,7 +903,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,16 +1375,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Professor/Plano de Aulas.xlsx
+++ b/Professor/Plano de Aulas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -902,8 +902,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1149,7 @@
       <c r="I10" t="s">
         <v>67</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="M10" t="s">

--- a/Professor/Plano de Aulas.xlsx
+++ b/Professor/Plano de Aulas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,6 +27,7 @@
     <definedName name="Remessa">1.25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -903,7 +904,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Professor/Plano de Aulas.xlsx
+++ b/Professor/Plano de Aulas.xlsx
@@ -16,18 +16,21 @@
   </sheets>
   <definedNames>
     <definedName name="Bananas">#REF!</definedName>
+    <definedName name="grp_Chave">"Outra linha de colchete,Linha de colchete"</definedName>
     <definedName name="grp_GuieMeChave">"shp_BraceBottom,txt_WalkMeBrace,shp_BraceLeft"</definedName>
     <definedName name="grp_GuieMeSetas">"shp_ArrowCurved,txt_WalkMeArrows,shp_ArrowStraight"</definedName>
+    <definedName name="grp_MaisInfo">"Linha inferior,Grupo 113"</definedName>
     <definedName name="Imposto_sobre_vendas">0.0825</definedName>
+    <definedName name="ImpostoSobreVendas">0.0825</definedName>
     <definedName name="Laranjas">#REF!</definedName>
     <definedName name="Limões">#REF!</definedName>
     <definedName name="lst_Fruta">#REF!</definedName>
     <definedName name="lst_TipoDeFruta">#REF!</definedName>
     <definedName name="Maçãs">#REF!</definedName>
     <definedName name="Remessa">1.25</definedName>
+    <definedName name="rng_Despesas20">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -430,7 +433,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="5" formatCode="&quot;R$&quot;\ #,##0;\-&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="169" formatCode="dd\-mmm"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,8 +495,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="42"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,8 +559,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -579,8 +624,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39991454817346722"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
@@ -600,6 +678,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -609,20 +727,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="33">
+    <cellStyle name="20% - Ênfase6 2" xfId="19"/>
+    <cellStyle name="Borda da tabela direita" xfId="20"/>
+    <cellStyle name="Borda da tabela esquerda" xfId="22"/>
     <cellStyle name="Borda laranja 2" xfId="9"/>
     <cellStyle name="Cabeçalho 1 2" xfId="2"/>
     <cellStyle name="Cabeçalho 2 2" xfId="3"/>
     <cellStyle name="Cabeçalho 3 2" xfId="8"/>
     <cellStyle name="Célula amarela 2 2" xfId="6"/>
     <cellStyle name="Célula cinza 2 2" xfId="7"/>
+    <cellStyle name="Currency 2" xfId="28"/>
+    <cellStyle name="Data" xfId="18"/>
+    <cellStyle name="Date" xfId="31"/>
+    <cellStyle name="Date 2" xfId="29"/>
+    <cellStyle name="Ênfase6 2" xfId="21"/>
+    <cellStyle name="Heading 1 2" xfId="25"/>
+    <cellStyle name="Heading 2 2" xfId="24"/>
+    <cellStyle name="Moeda 2" xfId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="12"/>
     <cellStyle name="Normal 3" xfId="5"/>
     <cellStyle name="Normal 3 2" xfId="10"/>
+    <cellStyle name="Normal 5 2" xfId="23"/>
+    <cellStyle name="Start Text" xfId="27"/>
     <cellStyle name="Texto de coluna de Z a A" xfId="11"/>
+    <cellStyle name="Texto Inicial" xfId="16"/>
+    <cellStyle name="Title 2" xfId="26"/>
+    <cellStyle name="Título 1 2" xfId="13"/>
     <cellStyle name="Título 2 2" xfId="4"/>
+    <cellStyle name="Título 2 3" xfId="14"/>
+    <cellStyle name="Título 5" xfId="15"/>
+    <cellStyle name="YellowCell" xfId="32"/>
+    <cellStyle name="z A Column text" xfId="30"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -904,7 +1042,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
